--- a/20241月報名表.xlsx
+++ b/20241月報名表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>報名序號</t>
   </si>
@@ -448,6 +448,10 @@
   </si>
   <si>
     <t>預分組編號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>性別</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,6 +594,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -873,19 +880,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="5" max="6" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -901,8 +908,11 @@
       <c r="E1" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -916,8 +926,12 @@
         <v>28</v>
       </c>
       <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="9" t="str">
+        <f>IF(LEFT(B2,1)="F","女","男")</f>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -931,8 +945,12 @@
         <v>14.4</v>
       </c>
       <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="9" t="str">
+        <f t="shared" ref="F3:F66" si="0">IF(LEFT(B3,1)="F","女","男")</f>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -948,8 +966,12 @@
       <c r="E4" s="8">
         <v>1203190440</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -963,8 +985,12 @@
         <v>14</v>
       </c>
       <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -978,8 +1004,12 @@
         <v>13.9</v>
       </c>
       <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -993,8 +1023,12 @@
         <v>10.5</v>
       </c>
       <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1008,8 +1042,12 @@
         <v>7</v>
       </c>
       <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1023,8 +1061,12 @@
         <v>8.5</v>
       </c>
       <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1038,8 +1080,12 @@
         <v>20.100000000000001</v>
       </c>
       <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1053,8 +1099,12 @@
         <v>17</v>
       </c>
       <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1068,8 +1118,12 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1085,8 +1139,12 @@
       <c r="E13" s="8">
         <v>122222442</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>女</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1100,8 +1158,12 @@
         <v>17</v>
       </c>
       <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1115,8 +1177,12 @@
         <v>22.4</v>
       </c>
       <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1130,8 +1196,12 @@
         <v>5.6</v>
       </c>
       <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1145,8 +1215,12 @@
         <v>28</v>
       </c>
       <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1160,8 +1234,12 @@
         <v>12</v>
       </c>
       <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>女</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1175,8 +1253,12 @@
         <v>14.3</v>
       </c>
       <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1192,8 +1274,12 @@
       <c r="E20" s="8">
         <v>122222442</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1209,8 +1295,12 @@
       <c r="E21" s="8">
         <v>1203190440</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1224,8 +1314,12 @@
         <v>19.899999999999999</v>
       </c>
       <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1239,8 +1333,12 @@
         <v>13.8</v>
       </c>
       <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1254,8 +1352,12 @@
         <v>19.8</v>
       </c>
       <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>女</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1269,8 +1371,12 @@
         <v>17.100000000000001</v>
       </c>
       <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1284,8 +1390,12 @@
         <v>12.6</v>
       </c>
       <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1299,8 +1409,12 @@
         <v>15.4</v>
       </c>
       <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1314,8 +1428,12 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1329,8 +1447,12 @@
         <v>18.100000000000001</v>
       </c>
       <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1344,8 +1466,12 @@
         <v>12</v>
       </c>
       <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1359,8 +1485,12 @@
         <v>10.7</v>
       </c>
       <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1374,8 +1504,12 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1389,8 +1523,12 @@
         <v>22</v>
       </c>
       <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1404,8 +1542,12 @@
         <v>9.4</v>
       </c>
       <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1419,8 +1561,12 @@
         <v>17.3</v>
       </c>
       <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1436,8 +1582,12 @@
       <c r="E36" s="8">
         <v>122222442</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1451,8 +1601,12 @@
         <v>24</v>
       </c>
       <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>女</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1466,8 +1620,12 @@
         <v>7.7</v>
       </c>
       <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1481,8 +1639,12 @@
         <v>26.7</v>
       </c>
       <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>女</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1496,8 +1658,12 @@
         <v>23.2</v>
       </c>
       <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>女</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1511,8 +1677,12 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1526,8 +1696,12 @@
         <v>22.4</v>
       </c>
       <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1541,8 +1715,12 @@
         <v>17</v>
       </c>
       <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1556,8 +1734,12 @@
         <v>22.4</v>
       </c>
       <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1571,8 +1753,12 @@
         <v>21.8</v>
       </c>
       <c r="E45" s="8"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1586,8 +1772,12 @@
         <v>17</v>
       </c>
       <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -1601,8 +1791,12 @@
         <v>22.4</v>
       </c>
       <c r="E47" s="8"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1616,8 +1810,12 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="E48" s="8"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -1631,8 +1829,12 @@
         <v>0</v>
       </c>
       <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>女</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1646,8 +1848,12 @@
         <v>22.6</v>
       </c>
       <c r="E50" s="8"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1661,8 +1867,12 @@
         <v>17.600000000000001</v>
       </c>
       <c r="E51" s="8"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1676,8 +1886,12 @@
         <v>24</v>
       </c>
       <c r="E52" s="8"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -1691,8 +1905,12 @@
         <v>22.4</v>
       </c>
       <c r="E53" s="8"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1706,8 +1924,12 @@
         <v>28.8</v>
       </c>
       <c r="E54" s="8"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>女</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -1721,8 +1943,12 @@
         <v>22.2</v>
       </c>
       <c r="E55" s="8"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1736,8 +1962,12 @@
         <v>15.7</v>
       </c>
       <c r="E56" s="8"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>女</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -1751,8 +1981,12 @@
         <v>18.8</v>
       </c>
       <c r="E57" s="8"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1766,8 +2000,12 @@
         <v>17.3</v>
       </c>
       <c r="E58" s="8"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -1781,8 +2019,12 @@
         <v>10.8</v>
       </c>
       <c r="E59" s="8"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1796,8 +2038,12 @@
         <v>13</v>
       </c>
       <c r="E60" s="8"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -1811,8 +2057,12 @@
         <v>15.2</v>
       </c>
       <c r="E61" s="8"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1826,8 +2076,12 @@
         <v>7.5</v>
       </c>
       <c r="E62" s="8"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -1841,8 +2095,12 @@
         <v>22</v>
       </c>
       <c r="E63" s="8"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1858,8 +2116,12 @@
       <c r="E64" s="8">
         <v>122222442</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -1873,8 +2135,12 @@
         <v>17.100000000000001</v>
       </c>
       <c r="E65" s="8"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1888,8 +2154,12 @@
         <v>28.8</v>
       </c>
       <c r="E66" s="8"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -1903,8 +2173,12 @@
         <v>14.6</v>
       </c>
       <c r="E67" s="8"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="9" t="str">
+        <f t="shared" ref="F67:F69" si="1">IF(LEFT(B67,1)="F","女","男")</f>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1918,8 +2192,12 @@
         <v>18.100000000000001</v>
       </c>
       <c r="E68" s="8"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -1933,6 +2211,10 @@
         <v>11.6</v>
       </c>
       <c r="E69" s="8"/>
+      <c r="F69" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>男</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/20241月報名表.xlsx
+++ b/20241月報名表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="144">
   <si>
     <t>報名序號</t>
   </si>
@@ -453,6 +453,12 @@
   <si>
     <t>性別</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -883,7 +889,7 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -926,9 +932,8 @@
         <v>28</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="9" t="str">
-        <f>IF(LEFT(B2,1)="F","女","男")</f>
-        <v>男</v>
+      <c r="F2" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -945,9 +950,8 @@
         <v>14.4</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="9" t="str">
-        <f t="shared" ref="F3:F66" si="0">IF(LEFT(B3,1)="F","女","男")</f>
-        <v>男</v>
+      <c r="F3" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -966,9 +970,8 @@
       <c r="E4" s="8">
         <v>1203190440</v>
       </c>
-      <c r="F4" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F4" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -985,9 +988,8 @@
         <v>14</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F5" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1004,9 +1006,8 @@
         <v>13.9</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F6" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1023,9 +1024,8 @@
         <v>10.5</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F7" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1042,9 +1042,8 @@
         <v>7</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F8" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1061,9 +1060,8 @@
         <v>8.5</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F9" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1080,9 +1078,8 @@
         <v>20.100000000000001</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F10" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1099,9 +1096,8 @@
         <v>17</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F11" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1118,9 +1114,8 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F12" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1139,9 +1134,8 @@
       <c r="E13" s="8">
         <v>122222442</v>
       </c>
-      <c r="F13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>女</v>
+      <c r="F13" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1158,9 +1152,8 @@
         <v>17</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F14" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1177,9 +1170,8 @@
         <v>22.4</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F15" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1196,9 +1188,8 @@
         <v>5.6</v>
       </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F16" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1215,9 +1206,8 @@
         <v>28</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F17" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1234,9 +1224,8 @@
         <v>12</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>女</v>
+      <c r="F18" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1253,9 +1242,8 @@
         <v>14.3</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F19" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1274,9 +1262,8 @@
       <c r="E20" s="8">
         <v>122222442</v>
       </c>
-      <c r="F20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F20" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1295,9 +1282,8 @@
       <c r="E21" s="8">
         <v>1203190440</v>
       </c>
-      <c r="F21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F21" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1314,9 +1300,8 @@
         <v>19.899999999999999</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F22" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1333,9 +1318,8 @@
         <v>13.8</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F23" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1352,9 +1336,8 @@
         <v>19.8</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>女</v>
+      <c r="F24" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1371,9 +1354,8 @@
         <v>17.100000000000001</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F25" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1390,9 +1372,8 @@
         <v>12.6</v>
       </c>
       <c r="E26" s="8"/>
-      <c r="F26" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F26" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1409,9 +1390,8 @@
         <v>15.4</v>
       </c>
       <c r="E27" s="8"/>
-      <c r="F27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F27" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1428,9 +1408,8 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E28" s="8"/>
-      <c r="F28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F28" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1447,9 +1426,8 @@
         <v>18.100000000000001</v>
       </c>
       <c r="E29" s="8"/>
-      <c r="F29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F29" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1466,9 +1444,8 @@
         <v>12</v>
       </c>
       <c r="E30" s="8"/>
-      <c r="F30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F30" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1485,9 +1462,8 @@
         <v>10.7</v>
       </c>
       <c r="E31" s="8"/>
-      <c r="F31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F31" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1504,9 +1480,8 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E32" s="8"/>
-      <c r="F32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F32" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1523,9 +1498,8 @@
         <v>22</v>
       </c>
       <c r="E33" s="8"/>
-      <c r="F33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F33" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1542,9 +1516,8 @@
         <v>9.4</v>
       </c>
       <c r="E34" s="8"/>
-      <c r="F34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F34" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1561,9 +1534,8 @@
         <v>17.3</v>
       </c>
       <c r="E35" s="8"/>
-      <c r="F35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F35" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1582,9 +1554,8 @@
       <c r="E36" s="8">
         <v>122222442</v>
       </c>
-      <c r="F36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F36" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1601,9 +1572,8 @@
         <v>24</v>
       </c>
       <c r="E37" s="8"/>
-      <c r="F37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>女</v>
+      <c r="F37" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1620,9 +1590,8 @@
         <v>7.7</v>
       </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F38" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1639,9 +1608,8 @@
         <v>26.7</v>
       </c>
       <c r="E39" s="8"/>
-      <c r="F39" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>女</v>
+      <c r="F39" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1658,9 +1626,8 @@
         <v>23.2</v>
       </c>
       <c r="E40" s="8"/>
-      <c r="F40" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>女</v>
+      <c r="F40" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1677,9 +1644,8 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="E41" s="8"/>
-      <c r="F41" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F41" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1696,9 +1662,8 @@
         <v>22.4</v>
       </c>
       <c r="E42" s="8"/>
-      <c r="F42" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F42" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1715,9 +1680,8 @@
         <v>17</v>
       </c>
       <c r="E43" s="8"/>
-      <c r="F43" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F43" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1734,9 +1698,8 @@
         <v>22.4</v>
       </c>
       <c r="E44" s="8"/>
-      <c r="F44" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F44" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1753,9 +1716,8 @@
         <v>21.8</v>
       </c>
       <c r="E45" s="8"/>
-      <c r="F45" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F45" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1772,9 +1734,8 @@
         <v>17</v>
       </c>
       <c r="E46" s="8"/>
-      <c r="F46" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F46" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1791,9 +1752,8 @@
         <v>22.4</v>
       </c>
       <c r="E47" s="8"/>
-      <c r="F47" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F47" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1810,9 +1770,8 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="E48" s="8"/>
-      <c r="F48" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F48" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1829,9 +1788,8 @@
         <v>0</v>
       </c>
       <c r="E49" s="8"/>
-      <c r="F49" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>女</v>
+      <c r="F49" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1848,9 +1806,8 @@
         <v>22.6</v>
       </c>
       <c r="E50" s="8"/>
-      <c r="F50" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F50" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1867,9 +1824,8 @@
         <v>17.600000000000001</v>
       </c>
       <c r="E51" s="8"/>
-      <c r="F51" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F51" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1886,9 +1842,8 @@
         <v>24</v>
       </c>
       <c r="E52" s="8"/>
-      <c r="F52" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F52" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1905,9 +1860,8 @@
         <v>22.4</v>
       </c>
       <c r="E53" s="8"/>
-      <c r="F53" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F53" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1924,9 +1878,8 @@
         <v>28.8</v>
       </c>
       <c r="E54" s="8"/>
-      <c r="F54" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>女</v>
+      <c r="F54" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1943,9 +1896,8 @@
         <v>22.2</v>
       </c>
       <c r="E55" s="8"/>
-      <c r="F55" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F55" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1962,9 +1914,8 @@
         <v>15.7</v>
       </c>
       <c r="E56" s="8"/>
-      <c r="F56" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>女</v>
+      <c r="F56" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1981,9 +1932,8 @@
         <v>18.8</v>
       </c>
       <c r="E57" s="8"/>
-      <c r="F57" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F57" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2000,9 +1950,8 @@
         <v>17.3</v>
       </c>
       <c r="E58" s="8"/>
-      <c r="F58" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F58" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2019,9 +1968,8 @@
         <v>10.8</v>
       </c>
       <c r="E59" s="8"/>
-      <c r="F59" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F59" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2038,9 +1986,8 @@
         <v>13</v>
       </c>
       <c r="E60" s="8"/>
-      <c r="F60" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F60" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2057,9 +2004,8 @@
         <v>15.2</v>
       </c>
       <c r="E61" s="8"/>
-      <c r="F61" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F61" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2076,9 +2022,8 @@
         <v>7.5</v>
       </c>
       <c r="E62" s="8"/>
-      <c r="F62" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F62" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2095,9 +2040,8 @@
         <v>22</v>
       </c>
       <c r="E63" s="8"/>
-      <c r="F63" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F63" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2116,9 +2060,8 @@
       <c r="E64" s="8">
         <v>122222442</v>
       </c>
-      <c r="F64" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F64" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2135,9 +2078,8 @@
         <v>17.100000000000001</v>
       </c>
       <c r="E65" s="8"/>
-      <c r="F65" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F65" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2154,9 +2096,8 @@
         <v>28.8</v>
       </c>
       <c r="E66" s="8"/>
-      <c r="F66" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>男</v>
+      <c r="F66" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2173,9 +2114,8 @@
         <v>14.6</v>
       </c>
       <c r="E67" s="8"/>
-      <c r="F67" s="9" t="str">
-        <f t="shared" ref="F67:F69" si="1">IF(LEFT(B67,1)="F","女","男")</f>
-        <v>男</v>
+      <c r="F67" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2192,9 +2132,8 @@
         <v>18.100000000000001</v>
       </c>
       <c r="E68" s="8"/>
-      <c r="F68" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>男</v>
+      <c r="F68" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2211,9 +2150,8 @@
         <v>11.6</v>
       </c>
       <c r="E69" s="8"/>
-      <c r="F69" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>男</v>
+      <c r="F69" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
